--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Fn1-Itgb1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Fn1-Itgb1.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>19.81532133333333</v>
+        <v>32.93949833333333</v>
       </c>
       <c r="H2">
-        <v>59.445964</v>
+        <v>98.818495</v>
       </c>
       <c r="I2">
-        <v>0.02448901563336021</v>
+        <v>0.02571831923682078</v>
       </c>
       <c r="J2">
-        <v>0.02448901563336021</v>
+        <v>0.02571831923682077</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>94.79985099999999</v>
+        <v>176.8550973333333</v>
       </c>
       <c r="N2">
-        <v>284.399553</v>
+        <v>530.565292</v>
       </c>
       <c r="O2">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="P2">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="Q2">
-        <v>1878.489509917121</v>
+        <v>5825.518183852838</v>
       </c>
       <c r="R2">
-        <v>16906.40558925409</v>
+        <v>52429.66365467554</v>
       </c>
       <c r="S2">
-        <v>0.004118963220422091</v>
+        <v>0.00686604719729666</v>
       </c>
       <c r="T2">
-        <v>0.004118963220422092</v>
+        <v>0.006866047197296659</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>19.81532133333333</v>
+        <v>32.93949833333333</v>
       </c>
       <c r="H3">
-        <v>59.445964</v>
+        <v>98.818495</v>
       </c>
       <c r="I3">
-        <v>0.02448901563336021</v>
+        <v>0.02571831923682078</v>
       </c>
       <c r="J3">
-        <v>0.02448901563336021</v>
+        <v>0.02571831923682077</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>436.924088</v>
       </c>
       <c r="O3">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="P3">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="Q3">
-        <v>2885.930400664537</v>
+        <v>4797.353422823062</v>
       </c>
       <c r="R3">
-        <v>25973.37360598083</v>
+        <v>43176.18080540756</v>
       </c>
       <c r="S3">
-        <v>0.006327978471149232</v>
+        <v>0.005654236066847356</v>
       </c>
       <c r="T3">
-        <v>0.006327978471149234</v>
+        <v>0.005654236066847355</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>19.81532133333333</v>
+        <v>32.93949833333333</v>
       </c>
       <c r="H4">
-        <v>59.445964</v>
+        <v>98.818495</v>
       </c>
       <c r="I4">
-        <v>0.02448901563336021</v>
+        <v>0.02571831923682078</v>
       </c>
       <c r="J4">
-        <v>0.02448901563336021</v>
+        <v>0.02571831923682077</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>72.77597066666667</v>
+        <v>84.02511333333334</v>
       </c>
       <c r="N4">
-        <v>218.327912</v>
+        <v>252.07534</v>
       </c>
       <c r="O4">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="P4">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="Q4">
-        <v>1442.079244105241</v>
+        <v>2767.745080601478</v>
       </c>
       <c r="R4">
-        <v>12978.71319694717</v>
+        <v>24909.7057254133</v>
       </c>
       <c r="S4">
-        <v>0.003162046599698949</v>
+        <v>0.003262107808052025</v>
       </c>
       <c r="T4">
-        <v>0.003162046599698949</v>
+        <v>0.003262107808052024</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>19.81532133333333</v>
+        <v>32.93949833333333</v>
       </c>
       <c r="H5">
-        <v>59.445964</v>
+        <v>98.818495</v>
       </c>
       <c r="I5">
-        <v>0.02448901563336021</v>
+        <v>0.02571831923682078</v>
       </c>
       <c r="J5">
-        <v>0.02448901563336021</v>
+        <v>0.02571831923682077</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>115.8358916666667</v>
+        <v>84.92877566666668</v>
       </c>
       <c r="N5">
-        <v>347.507675</v>
+        <v>254.786327</v>
       </c>
       <c r="O5">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="P5">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="Q5">
-        <v>2295.325415308189</v>
+        <v>2797.511264524207</v>
       </c>
       <c r="R5">
-        <v>20657.9287377737</v>
+        <v>25177.60138071787</v>
       </c>
       <c r="S5">
-        <v>0.005032959148636192</v>
+        <v>0.00329719069977887</v>
       </c>
       <c r="T5">
-        <v>0.005032959148636193</v>
+        <v>0.00329719069977887</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>19.81532133333333</v>
+        <v>32.93949833333333</v>
       </c>
       <c r="H6">
-        <v>59.445964</v>
+        <v>98.818495</v>
       </c>
       <c r="I6">
-        <v>0.02448901563336021</v>
+        <v>0.02571831923682078</v>
       </c>
       <c r="J6">
-        <v>0.02448901563336021</v>
+        <v>0.02571831923682077</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>58.18688599999999</v>
+        <v>63.97102366666667</v>
       </c>
       <c r="N6">
-        <v>174.560658</v>
+        <v>191.913071</v>
       </c>
       <c r="O6">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="P6">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="Q6">
-        <v>1152.991843476035</v>
+        <v>2107.173427449794</v>
       </c>
       <c r="R6">
-        <v>10376.92659128431</v>
+        <v>18964.56084704815</v>
       </c>
       <c r="S6">
-        <v>0.002528164768369658</v>
+        <v>0.002483547686086004</v>
       </c>
       <c r="T6">
-        <v>0.002528164768369659</v>
+        <v>0.002483547686086004</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>19.81532133333333</v>
+        <v>32.93949833333333</v>
       </c>
       <c r="H7">
-        <v>59.445964</v>
+        <v>98.818495</v>
       </c>
       <c r="I7">
-        <v>0.02448901563336021</v>
+        <v>0.02571831923682078</v>
       </c>
       <c r="J7">
-        <v>0.02448901563336021</v>
+        <v>0.02571831923682077</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>76.38610333333334</v>
+        <v>107.0290476666667</v>
       </c>
       <c r="N7">
-        <v>229.15831</v>
+        <v>321.087143</v>
       </c>
       <c r="O7">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="P7">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="Q7">
-        <v>1513.615182951205</v>
+        <v>3525.483137234421</v>
       </c>
       <c r="R7">
-        <v>13622.53664656084</v>
+        <v>31729.34823510979</v>
       </c>
       <c r="S7">
-        <v>0.003318903425084089</v>
+        <v>0.004155189778759863</v>
       </c>
       <c r="T7">
-        <v>0.00331890342508409</v>
+        <v>0.004155189778759862</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>1590.898651</v>
       </c>
       <c r="I8">
-        <v>0.6553774102381563</v>
+        <v>0.4140443484779395</v>
       </c>
       <c r="J8">
-        <v>0.6553774102381563</v>
+        <v>0.4140443484779395</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>94.79985099999999</v>
+        <v>176.8550973333333</v>
       </c>
       <c r="N8">
-        <v>284.399553</v>
+        <v>530.565292</v>
       </c>
       <c r="O8">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="P8">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="Q8">
-        <v>50272.31835696699</v>
+        <v>93786.17859002456</v>
       </c>
       <c r="R8">
-        <v>452450.8652127029</v>
+        <v>844075.6073102211</v>
       </c>
       <c r="S8">
-        <v>0.1102320929792327</v>
+        <v>0.1105378626124754</v>
       </c>
       <c r="T8">
-        <v>0.1102320929792327</v>
+        <v>0.1105378626124754</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>1590.898651</v>
       </c>
       <c r="I9">
-        <v>0.6553774102381563</v>
+        <v>0.4140443484779395</v>
       </c>
       <c r="J9">
-        <v>0.6553774102381563</v>
+        <v>0.4140443484779395</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>436.924088</v>
       </c>
       <c r="O9">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="P9">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="Q9">
         <v>77233.54913206724</v>
@@ -1013,10 +1013,10 @@
         <v>695101.9421886052</v>
       </c>
       <c r="S9">
-        <v>0.1693499732514785</v>
+        <v>0.09102867364234805</v>
       </c>
       <c r="T9">
-        <v>0.1693499732514785</v>
+        <v>0.09102867364234805</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>1590.898651</v>
       </c>
       <c r="I10">
-        <v>0.6553774102381563</v>
+        <v>0.4140443484779395</v>
       </c>
       <c r="J10">
-        <v>0.6553774102381563</v>
+        <v>0.4140443484779395</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>72.77597066666667</v>
+        <v>84.02511333333334</v>
       </c>
       <c r="N10">
-        <v>218.327912</v>
+        <v>252.07534</v>
       </c>
       <c r="O10">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="P10">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="Q10">
-        <v>38593.06451960518</v>
+        <v>44558.47981737403</v>
       </c>
       <c r="R10">
-        <v>347337.5806764467</v>
+        <v>401026.3183563664</v>
       </c>
       <c r="S10">
-        <v>0.08462299761612403</v>
+        <v>0.05251732392045166</v>
       </c>
       <c r="T10">
-        <v>0.08462299761612403</v>
+        <v>0.05251732392045166</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>1590.898651</v>
       </c>
       <c r="I11">
-        <v>0.6553774102381563</v>
+        <v>0.4140443484779395</v>
       </c>
       <c r="J11">
-        <v>0.6553774102381563</v>
+        <v>0.4140443484779395</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>115.8358916666667</v>
+        <v>84.92877566666668</v>
       </c>
       <c r="N11">
-        <v>347.507675</v>
+        <v>254.786327</v>
       </c>
       <c r="O11">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="P11">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="Q11">
-        <v>61427.72126329404</v>
+        <v>45037.69154639388</v>
       </c>
       <c r="R11">
-        <v>552849.4913696464</v>
+        <v>405339.2239175449</v>
       </c>
       <c r="S11">
-        <v>0.13469254060887</v>
+        <v>0.05308213038832407</v>
       </c>
       <c r="T11">
-        <v>0.13469254060887</v>
+        <v>0.05308213038832407</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>1590.898651</v>
       </c>
       <c r="I12">
-        <v>0.6553774102381563</v>
+        <v>0.4140443484779395</v>
       </c>
       <c r="J12">
-        <v>0.6553774102381563</v>
+        <v>0.4140443484779395</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>58.18688599999999</v>
+        <v>63.97102366666667</v>
       </c>
       <c r="N12">
-        <v>174.560658</v>
+        <v>191.913071</v>
       </c>
       <c r="O12">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="P12">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="Q12">
-        <v>30856.47948109692</v>
+        <v>33923.80508479635</v>
       </c>
       <c r="R12">
-        <v>277708.3153298724</v>
+        <v>305314.2457631672</v>
       </c>
       <c r="S12">
-        <v>0.06765899060035457</v>
+        <v>0.03998312930680025</v>
       </c>
       <c r="T12">
-        <v>0.06765899060035457</v>
+        <v>0.03998312930680025</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>1590.898651</v>
       </c>
       <c r="I13">
-        <v>0.6553774102381563</v>
+        <v>0.4140443484779395</v>
       </c>
       <c r="J13">
-        <v>0.6553774102381563</v>
+        <v>0.4140443484779395</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>76.38610333333334</v>
+        <v>107.0290476666667</v>
       </c>
       <c r="N13">
-        <v>229.15831</v>
+        <v>321.087143</v>
       </c>
       <c r="O13">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="P13">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="Q13">
-        <v>40507.5162493822</v>
+        <v>56757.45585023823</v>
       </c>
       <c r="R13">
-        <v>364567.6462444398</v>
+        <v>510817.1026521442</v>
       </c>
       <c r="S13">
-        <v>0.0888208151820964</v>
+        <v>0.06689522860754005</v>
       </c>
       <c r="T13">
-        <v>0.08882081518209643</v>
+        <v>0.06689522860754005</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>114.1551646666667</v>
+        <v>422.1807963333333</v>
       </c>
       <c r="H14">
-        <v>342.465494</v>
+        <v>1266.542389</v>
       </c>
       <c r="I14">
-        <v>0.1410801048907614</v>
+        <v>0.3296279860087694</v>
       </c>
       <c r="J14">
-        <v>0.1410801048907614</v>
+        <v>0.3296279860087693</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>94.79985099999999</v>
+        <v>176.8550973333333</v>
       </c>
       <c r="N14">
-        <v>284.399553</v>
+        <v>530.565292</v>
       </c>
       <c r="O14">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="P14">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="Q14">
-        <v>10821.89260128046</v>
+        <v>74664.82582779584</v>
       </c>
       <c r="R14">
-        <v>97397.03341152419</v>
+        <v>671983.4324501626</v>
       </c>
       <c r="S14">
-        <v>0.0237291597130073</v>
+        <v>0.08800113602469727</v>
       </c>
       <c r="T14">
-        <v>0.02372915971300731</v>
+        <v>0.08800113602469725</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>114.1551646666667</v>
+        <v>422.1807963333333</v>
       </c>
       <c r="H15">
-        <v>342.465494</v>
+        <v>1266.542389</v>
       </c>
       <c r="I15">
-        <v>0.1410801048907614</v>
+        <v>0.3296279860087694</v>
       </c>
       <c r="J15">
-        <v>0.1410801048907614</v>
+        <v>0.3296279860087693</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>436.924088</v>
       </c>
       <c r="O15">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="P15">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="Q15">
-        <v>16625.71373749105</v>
+        <v>61486.98646968513</v>
       </c>
       <c r="R15">
-        <v>149631.4236374195</v>
+        <v>553382.8782271662</v>
       </c>
       <c r="S15">
-        <v>0.03645519606921484</v>
+        <v>0.07246952765345004</v>
       </c>
       <c r="T15">
-        <v>0.03645519606921484</v>
+        <v>0.07246952765345002</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>114.1551646666667</v>
+        <v>422.1807963333333</v>
       </c>
       <c r="H16">
-        <v>342.465494</v>
+        <v>1266.542389</v>
       </c>
       <c r="I16">
-        <v>0.1410801048907614</v>
+        <v>0.3296279860087694</v>
       </c>
       <c r="J16">
-        <v>0.1410801048907614</v>
+        <v>0.3296279860087693</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>72.77597066666667</v>
+        <v>84.02511333333334</v>
       </c>
       <c r="N16">
-        <v>218.327912</v>
+        <v>252.07534</v>
       </c>
       <c r="O16">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="P16">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="Q16">
-        <v>8307.752915229838</v>
+        <v>35473.78925906525</v>
       </c>
       <c r="R16">
-        <v>74769.77623706854</v>
+        <v>319264.1033315873</v>
       </c>
       <c r="S16">
-        <v>0.01821640659771151</v>
+        <v>0.04180996499072127</v>
       </c>
       <c r="T16">
-        <v>0.01821640659771151</v>
+        <v>0.04180996499072127</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>114.1551646666667</v>
+        <v>422.1807963333333</v>
       </c>
       <c r="H17">
-        <v>342.465494</v>
+        <v>1266.542389</v>
       </c>
       <c r="I17">
-        <v>0.1410801048907614</v>
+        <v>0.3296279860087694</v>
       </c>
       <c r="J17">
-        <v>0.1410801048907614</v>
+        <v>0.3296279860087693</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>115.8358916666667</v>
+        <v>84.92877566666668</v>
       </c>
       <c r="N17">
-        <v>347.507675</v>
+        <v>254.786327</v>
       </c>
       <c r="O17">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="P17">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="Q17">
-        <v>13223.2652875185</v>
+        <v>35855.29814256836</v>
       </c>
       <c r="R17">
-        <v>119009.3875876665</v>
+        <v>322697.6832831152</v>
       </c>
       <c r="S17">
-        <v>0.02899464867151474</v>
+        <v>0.04225961735084624</v>
       </c>
       <c r="T17">
-        <v>0.02899464867151474</v>
+        <v>0.04225961735084623</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>114.1551646666667</v>
+        <v>422.1807963333333</v>
       </c>
       <c r="H18">
-        <v>342.465494</v>
+        <v>1266.542389</v>
       </c>
       <c r="I18">
-        <v>0.1410801048907614</v>
+        <v>0.3296279860087694</v>
       </c>
       <c r="J18">
-        <v>0.1410801048907614</v>
+        <v>0.3296279860087693</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>58.18688599999999</v>
+        <v>63.97102366666667</v>
       </c>
       <c r="N18">
-        <v>174.560658</v>
+        <v>191.913071</v>
       </c>
       <c r="O18">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="P18">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="Q18">
-        <v>6642.333552770561</v>
+        <v>27007.33771385184</v>
       </c>
       <c r="R18">
-        <v>59781.00197493505</v>
+        <v>243066.0394246666</v>
       </c>
       <c r="S18">
-        <v>0.01456464220704892</v>
+        <v>0.03183127226872651</v>
       </c>
       <c r="T18">
-        <v>0.01456464220704892</v>
+        <v>0.0318312722687265</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>114.1551646666667</v>
+        <v>422.1807963333333</v>
       </c>
       <c r="H19">
-        <v>342.465494</v>
+        <v>1266.542389</v>
       </c>
       <c r="I19">
-        <v>0.1410801048907614</v>
+        <v>0.3296279860087694</v>
       </c>
       <c r="J19">
-        <v>0.1410801048907614</v>
+        <v>0.3296279860087693</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>76.38610333333334</v>
+        <v>107.0290476666667</v>
       </c>
       <c r="N19">
-        <v>229.15831</v>
+        <v>321.087143</v>
       </c>
       <c r="O19">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="P19">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="Q19">
-        <v>8719.868204261684</v>
+        <v>45185.60857471162</v>
       </c>
       <c r="R19">
-        <v>78478.81383835516</v>
+        <v>406670.4771724046</v>
       </c>
       <c r="S19">
-        <v>0.01912005163226413</v>
+        <v>0.05325646772032805</v>
       </c>
       <c r="T19">
-        <v>0.01912005163226413</v>
+        <v>0.05325646772032804</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>56.330706</v>
+        <v>16.509264</v>
       </c>
       <c r="H20">
-        <v>168.992118</v>
+        <v>49.527792</v>
       </c>
       <c r="I20">
-        <v>0.06961701587708551</v>
+        <v>0.01289001179132366</v>
       </c>
       <c r="J20">
-        <v>0.06961701587708552</v>
+        <v>0.01289001179132366</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>94.79985099999999</v>
+        <v>176.8550973333333</v>
       </c>
       <c r="N20">
-        <v>284.399553</v>
+        <v>530.565292</v>
       </c>
       <c r="O20">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="P20">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="Q20">
-        <v>5340.142535524806</v>
+        <v>2919.747491621696</v>
       </c>
       <c r="R20">
-        <v>48061.28281972325</v>
+        <v>26277.72742459526</v>
       </c>
       <c r="S20">
-        <v>0.01170932846817372</v>
+        <v>0.003441260236253263</v>
       </c>
       <c r="T20">
-        <v>0.01170932846817372</v>
+        <v>0.003441260236253263</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>56.330706</v>
+        <v>16.509264</v>
       </c>
       <c r="H21">
-        <v>168.992118</v>
+        <v>49.527792</v>
       </c>
       <c r="I21">
-        <v>0.06961701587708551</v>
+        <v>0.01289001179132366</v>
       </c>
       <c r="J21">
-        <v>0.06961701587708552</v>
+        <v>0.01289001179132366</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>436.924088</v>
       </c>
       <c r="O21">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="P21">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="Q21">
-        <v>8204.080781815375</v>
+        <v>2404.431705583744</v>
       </c>
       <c r="R21">
-        <v>73836.72703633839</v>
+        <v>21639.88535025369</v>
       </c>
       <c r="S21">
-        <v>0.01798908475094979</v>
+        <v>0.002833900959913566</v>
       </c>
       <c r="T21">
-        <v>0.0179890847509498</v>
+        <v>0.002833900959913566</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>56.330706</v>
+        <v>16.509264</v>
       </c>
       <c r="H22">
-        <v>168.992118</v>
+        <v>49.527792</v>
       </c>
       <c r="I22">
-        <v>0.06961701587708551</v>
+        <v>0.01289001179132366</v>
       </c>
       <c r="J22">
-        <v>0.06961701587708552</v>
+        <v>0.01289001179132366</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>72.77597066666667</v>
+        <v>84.02511333333334</v>
       </c>
       <c r="N22">
-        <v>218.327912</v>
+        <v>252.07534</v>
       </c>
       <c r="O22">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="P22">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="Q22">
-        <v>4099.521807488624</v>
+        <v>1387.19277864992</v>
       </c>
       <c r="R22">
-        <v>36895.69626739762</v>
+        <v>12484.73500784928</v>
       </c>
       <c r="S22">
-        <v>0.008989019878587948</v>
+        <v>0.001634967189075047</v>
       </c>
       <c r="T22">
-        <v>0.00898901987858795</v>
+        <v>0.001634967189075047</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>56.330706</v>
+        <v>16.509264</v>
       </c>
       <c r="H23">
-        <v>168.992118</v>
+        <v>49.527792</v>
       </c>
       <c r="I23">
-        <v>0.06961701587708551</v>
+        <v>0.01289001179132366</v>
       </c>
       <c r="J23">
-        <v>0.06961701587708552</v>
+        <v>0.01289001179132366</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>115.8358916666667</v>
+        <v>84.92877566666668</v>
       </c>
       <c r="N23">
-        <v>347.507675</v>
+        <v>254.786327</v>
       </c>
       <c r="O23">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="P23">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="Q23">
-        <v>6525.11755772285</v>
+        <v>1402.111578677776</v>
       </c>
       <c r="R23">
-        <v>58726.05801950565</v>
+        <v>12619.00420809998</v>
       </c>
       <c r="S23">
-        <v>0.01430762274013265</v>
+        <v>0.001652550721026285</v>
       </c>
       <c r="T23">
-        <v>0.01430762274013265</v>
+        <v>0.001652550721026285</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>56.330706</v>
+        <v>16.509264</v>
       </c>
       <c r="H24">
-        <v>168.992118</v>
+        <v>49.527792</v>
       </c>
       <c r="I24">
-        <v>0.06961701587708551</v>
+        <v>0.01289001179132366</v>
       </c>
       <c r="J24">
-        <v>0.06961701587708552</v>
+        <v>0.01289001179132366</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>58.18688599999999</v>
+        <v>63.97102366666667</v>
       </c>
       <c r="N24">
-        <v>174.560658</v>
+        <v>191.913071</v>
       </c>
       <c r="O24">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="P24">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="Q24">
-        <v>3277.708368321516</v>
+        <v>1056.114518063248</v>
       </c>
       <c r="R24">
-        <v>29499.37531489364</v>
+        <v>9505.030662569232</v>
       </c>
       <c r="S24">
-        <v>0.007187029869004527</v>
+        <v>0.001244753152924955</v>
       </c>
       <c r="T24">
-        <v>0.00718702986900453</v>
+        <v>0.001244753152924955</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>56.330706</v>
+        <v>16.509264</v>
       </c>
       <c r="H25">
-        <v>168.992118</v>
+        <v>49.527792</v>
       </c>
       <c r="I25">
-        <v>0.06961701587708551</v>
+        <v>0.01289001179132366</v>
       </c>
       <c r="J25">
-        <v>0.06961701587708552</v>
+        <v>0.01289001179132366</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>76.38610333333334</v>
+        <v>107.0290476666667</v>
       </c>
       <c r="N25">
-        <v>229.15831</v>
+        <v>321.087143</v>
       </c>
       <c r="O25">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="P25">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="Q25">
-        <v>4302.88312935562</v>
+        <v>1766.970803597584</v>
       </c>
       <c r="R25">
-        <v>38725.94816420058</v>
+        <v>15902.73723237826</v>
       </c>
       <c r="S25">
-        <v>0.009434930170236864</v>
+        <v>0.002082579532130544</v>
       </c>
       <c r="T25">
-        <v>0.009434930170236867</v>
+        <v>0.002082579532130544</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>46.22062233333333</v>
+        <v>44.62094166666666</v>
       </c>
       <c r="H26">
-        <v>138.661867</v>
+        <v>133.862825</v>
       </c>
       <c r="I26">
-        <v>0.05712234103418551</v>
+        <v>0.03483889192294087</v>
       </c>
       <c r="J26">
-        <v>0.05712234103418551</v>
+        <v>0.03483889192294087</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>94.79985099999999</v>
+        <v>176.8550973333333</v>
       </c>
       <c r="N26">
-        <v>284.399553</v>
+        <v>530.565292</v>
       </c>
       <c r="O26">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="P26">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="Q26">
-        <v>4381.708110327271</v>
+        <v>7891.440981563321</v>
       </c>
       <c r="R26">
-        <v>39435.37299294545</v>
+        <v>71022.96883406989</v>
       </c>
       <c r="S26">
-        <v>0.00960776967546627</v>
+        <v>0.009300976243500401</v>
       </c>
       <c r="T26">
-        <v>0.009607769675466272</v>
+        <v>0.009300976243500401</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>46.22062233333333</v>
+        <v>44.62094166666666</v>
       </c>
       <c r="H27">
-        <v>138.661867</v>
+        <v>133.862825</v>
       </c>
       <c r="I27">
-        <v>0.05712234103418551</v>
+        <v>0.03483889192294087</v>
       </c>
       <c r="J27">
-        <v>0.05712234103418551</v>
+        <v>0.03483889192294087</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>436.924088</v>
       </c>
       <c r="O27">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="P27">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="Q27">
-        <v>6731.634419928032</v>
+        <v>6498.654747803176</v>
       </c>
       <c r="R27">
-        <v>60584.70977935229</v>
+        <v>58487.89273022859</v>
       </c>
       <c r="S27">
-        <v>0.01476045218385824</v>
+        <v>0.007659416520410231</v>
       </c>
       <c r="T27">
-        <v>0.01476045218385824</v>
+        <v>0.007659416520410231</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>46.22062233333333</v>
+        <v>44.62094166666666</v>
       </c>
       <c r="H28">
-        <v>138.661867</v>
+        <v>133.862825</v>
       </c>
       <c r="I28">
-        <v>0.05712234103418551</v>
+        <v>0.03483889192294087</v>
       </c>
       <c r="J28">
-        <v>0.05712234103418551</v>
+        <v>0.03483889192294087</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>72.77597066666667</v>
+        <v>84.02511333333334</v>
       </c>
       <c r="N28">
-        <v>218.327912</v>
+        <v>252.07534</v>
       </c>
       <c r="O28">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="P28">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="Q28">
-        <v>3363.750655125745</v>
+        <v>3749.279680581722</v>
       </c>
       <c r="R28">
-        <v>30273.7558961317</v>
+        <v>33743.5171252355</v>
       </c>
       <c r="S28">
-        <v>0.007375694757936096</v>
+        <v>0.004418959898553421</v>
       </c>
       <c r="T28">
-        <v>0.007375694757936096</v>
+        <v>0.004418959898553421</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>46.22062233333333</v>
+        <v>44.62094166666666</v>
       </c>
       <c r="H29">
-        <v>138.661867</v>
+        <v>133.862825</v>
       </c>
       <c r="I29">
-        <v>0.05712234103418551</v>
+        <v>0.03483889192294087</v>
       </c>
       <c r="J29">
-        <v>0.05712234103418551</v>
+        <v>0.03483889192294087</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>115.8358916666667</v>
+        <v>84.92877566666668</v>
       </c>
       <c r="N29">
-        <v>347.507675</v>
+        <v>254.786327</v>
       </c>
       <c r="O29">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="P29">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="Q29">
-        <v>5354.007001369914</v>
+        <v>3789.601944843753</v>
       </c>
       <c r="R29">
-        <v>48186.06301232923</v>
+        <v>34106.41750359377</v>
       </c>
       <c r="S29">
-        <v>0.01173972907705938</v>
+        <v>0.004466484352308001</v>
       </c>
       <c r="T29">
-        <v>0.01173972907705938</v>
+        <v>0.004466484352308001</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>46.22062233333333</v>
+        <v>44.62094166666666</v>
       </c>
       <c r="H30">
-        <v>138.661867</v>
+        <v>133.862825</v>
       </c>
       <c r="I30">
-        <v>0.05712234103418551</v>
+        <v>0.03483889192294087</v>
       </c>
       <c r="J30">
-        <v>0.05712234103418551</v>
+        <v>0.03483889192294087</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>58.18688599999999</v>
+        <v>63.97102366666667</v>
       </c>
       <c r="N30">
-        <v>174.560658</v>
+        <v>191.913071</v>
       </c>
       <c r="O30">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="P30">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="Q30">
-        <v>2689.43408255872</v>
+        <v>2854.447315387286</v>
       </c>
       <c r="R30">
-        <v>24204.90674302848</v>
+        <v>25690.02583848557</v>
       </c>
       <c r="S30">
-        <v>0.005897121070587051</v>
+        <v>0.003364296423272644</v>
       </c>
       <c r="T30">
-        <v>0.005897121070587052</v>
+        <v>0.003364296423272644</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>46.22062233333333</v>
+        <v>44.62094166666666</v>
       </c>
       <c r="H31">
-        <v>138.661867</v>
+        <v>133.862825</v>
       </c>
       <c r="I31">
-        <v>0.05712234103418551</v>
+        <v>0.03483889192294087</v>
       </c>
       <c r="J31">
-        <v>0.05712234103418551</v>
+        <v>0.03483889192294087</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>76.38610333333334</v>
+        <v>107.0290476666667</v>
       </c>
       <c r="N31">
-        <v>229.15831</v>
+        <v>321.087143</v>
       </c>
       <c r="O31">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="P31">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="Q31">
-        <v>3530.613233684975</v>
+        <v>4775.736892573219</v>
       </c>
       <c r="R31">
-        <v>31775.51910316477</v>
+        <v>42981.63203315897</v>
       </c>
       <c r="S31">
-        <v>0.007741574269278473</v>
+        <v>0.005628758484896175</v>
       </c>
       <c r="T31">
-        <v>0.007741574269278475</v>
+        <v>0.005628758484896175</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>42.33003733333333</v>
+        <v>234.229538</v>
       </c>
       <c r="H32">
-        <v>126.990112</v>
+        <v>702.6886139999999</v>
       </c>
       <c r="I32">
-        <v>0.05231411232645103</v>
+        <v>0.1828804425622059</v>
       </c>
       <c r="J32">
-        <v>0.05231411232645103</v>
+        <v>0.1828804425622059</v>
       </c>
       <c r="K32">
         <v>3</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>94.79985099999999</v>
+        <v>176.8550973333333</v>
       </c>
       <c r="N32">
-        <v>284.399553</v>
+        <v>530.565292</v>
       </c>
       <c r="O32">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="P32">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="Q32">
-        <v>4012.881232024436</v>
+        <v>41424.68774133169</v>
       </c>
       <c r="R32">
-        <v>36115.93108821993</v>
+        <v>372822.1896719852</v>
       </c>
       <c r="S32">
-        <v>0.008799043122343544</v>
+        <v>0.04882378737631021</v>
       </c>
       <c r="T32">
-        <v>0.008799043122343546</v>
+        <v>0.04882378737631021</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>42.33003733333333</v>
+        <v>234.229538</v>
       </c>
       <c r="H33">
-        <v>126.990112</v>
+        <v>702.6886139999999</v>
       </c>
       <c r="I33">
-        <v>0.05231411232645103</v>
+        <v>0.1828804425622059</v>
       </c>
       <c r="J33">
-        <v>0.05231411232645103</v>
+        <v>0.1828804425622059</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>436.924088</v>
       </c>
       <c r="O33">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="P33">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="Q33">
-        <v>6165.004318957538</v>
+        <v>34113.50909110377</v>
       </c>
       <c r="R33">
-        <v>55485.03887061785</v>
+        <v>307021.581819934</v>
       </c>
       <c r="S33">
-        <v>0.01351800258104704</v>
+        <v>0.04020671742715551</v>
       </c>
       <c r="T33">
-        <v>0.01351800258104705</v>
+        <v>0.04020671742715551</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>42.33003733333333</v>
+        <v>234.229538</v>
       </c>
       <c r="H34">
-        <v>126.990112</v>
+        <v>702.6886139999999</v>
       </c>
       <c r="I34">
-        <v>0.05231411232645103</v>
+        <v>0.1828804425622059</v>
       </c>
       <c r="J34">
-        <v>0.05231411232645103</v>
+        <v>0.1828804425622059</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>72.77597066666667</v>
+        <v>84.02511333333334</v>
       </c>
       <c r="N34">
-        <v>218.327912</v>
+        <v>252.07534</v>
       </c>
       <c r="O34">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="P34">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="Q34">
-        <v>3080.609555289571</v>
+        <v>19681.16347646431</v>
       </c>
       <c r="R34">
-        <v>27725.48599760614</v>
+        <v>177130.4712881788</v>
       </c>
       <c r="S34">
-        <v>0.006754851378051312</v>
+        <v>0.02319652828510144</v>
       </c>
       <c r="T34">
-        <v>0.006754851378051312</v>
+        <v>0.02319652828510144</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>42.33003733333333</v>
+        <v>234.229538</v>
       </c>
       <c r="H35">
-        <v>126.990112</v>
+        <v>702.6886139999999</v>
       </c>
       <c r="I35">
-        <v>0.05231411232645103</v>
+        <v>0.1828804425622059</v>
       </c>
       <c r="J35">
-        <v>0.05231411232645103</v>
+        <v>0.1828804425622059</v>
       </c>
       <c r="K35">
         <v>3</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>115.8358916666667</v>
+        <v>84.92877566666668</v>
       </c>
       <c r="N35">
-        <v>347.507675</v>
+        <v>254.786327</v>
       </c>
       <c r="O35">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="P35">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="Q35">
-        <v>4903.337618789955</v>
+        <v>19892.82788730898</v>
       </c>
       <c r="R35">
-        <v>44130.0385691096</v>
+        <v>179035.4509857808</v>
       </c>
       <c r="S35">
-        <v>0.01075154649652472</v>
+        <v>0.02344599928304215</v>
       </c>
       <c r="T35">
-        <v>0.01075154649652472</v>
+        <v>0.02344599928304215</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>42.33003733333333</v>
+        <v>234.229538</v>
       </c>
       <c r="H36">
-        <v>126.990112</v>
+        <v>702.6886139999999</v>
       </c>
       <c r="I36">
-        <v>0.05231411232645103</v>
+        <v>0.1828804425622059</v>
       </c>
       <c r="J36">
-        <v>0.05231411232645103</v>
+        <v>0.1828804425622059</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>58.18688599999999</v>
+        <v>63.97102366666667</v>
       </c>
       <c r="N36">
-        <v>174.560658</v>
+        <v>191.913071</v>
       </c>
       <c r="O36">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="P36">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="Q36">
-        <v>2463.05305669041</v>
+        <v>14983.9033188304</v>
       </c>
       <c r="R36">
-        <v>22167.4775102137</v>
+        <v>134855.1298694736</v>
       </c>
       <c r="S36">
-        <v>0.005400735482895305</v>
+        <v>0.01766026371215915</v>
       </c>
       <c r="T36">
-        <v>0.005400735482895306</v>
+        <v>0.01766026371215915</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>42.33003733333333</v>
+        <v>234.229538</v>
       </c>
       <c r="H37">
-        <v>126.990112</v>
+        <v>702.6886139999999</v>
       </c>
       <c r="I37">
-        <v>0.05231411232645103</v>
+        <v>0.1828804425622059</v>
       </c>
       <c r="J37">
-        <v>0.05231411232645103</v>
+        <v>0.1828804425622059</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>76.38610333333334</v>
+        <v>107.0290476666667</v>
       </c>
       <c r="N37">
-        <v>229.15831</v>
+        <v>321.087143</v>
       </c>
       <c r="O37">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="P37">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="Q37">
-        <v>3233.426605847858</v>
+        <v>25069.36438754331</v>
       </c>
       <c r="R37">
-        <v>29100.83945263072</v>
+        <v>225624.2794878898</v>
       </c>
       <c r="S37">
-        <v>0.007089933265589099</v>
+        <v>0.02954714647843741</v>
       </c>
       <c r="T37">
-        <v>0.007089933265589101</v>
+        <v>0.02954714647843741</v>
       </c>
     </row>
   </sheetData>
